--- a/Tables/determinants_informal.xlsx
+++ b/Tables/determinants_informal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754935A5-B42C-4EC9-946B-F9E15CD7E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D04CB0-77CA-4DAB-96F2-5DEEC99C58C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24150" yWindow="-3885" windowWidth="21600" windowHeight="11175" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
   </bookViews>
   <sheets>
     <sheet name="determinants_informal" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t xml:space="preserve">Panel A : No IMSS </t>
+    <t xml:space="preserve">No IMSS </t>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
   <dimension ref="A3:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A3" sqref="A3:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Tables/determinants_informal.xlsx
+++ b/Tables/determinants_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D04CB0-77CA-4DAB-96F2-5DEEC99C58C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF93EA-330C-4D4C-A615-350D2B093BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
+    <workbookView xWindow="-19170" yWindow="-4935" windowWidth="14400" windowHeight="8175" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
   </bookViews>
   <sheets>
     <sheet name="determinants_informal" sheetId="2" r:id="rId1"/>
@@ -226,162 +226,162 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.0807***</v>
+            <v>0.08***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.0207***</v>
+            <v>0.02***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.0453***</v>
+            <v>0.04***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.0353***</v>
+            <v>0.03***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0436***</v>
+            <v>0.04***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.0285***</v>
+            <v>0.03***</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(0.000161)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.000145)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(9.51e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.000102)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(8.34e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(8.90e-05)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>0.00660***</v>
+            <v>0.01***</v>
           </cell>
           <cell r="C7" t="str">
-            <v>0.00320***</v>
+            <v>0.00***</v>
           </cell>
           <cell r="D7" t="str">
-            <v>0.00253***</v>
+            <v>0.00***</v>
           </cell>
           <cell r="E7" t="str">
-            <v>0.00198***</v>
+            <v>0.00***</v>
           </cell>
           <cell r="F7" t="str">
-            <v>0.00282***</v>
+            <v>0.00***</v>
           </cell>
           <cell r="G7" t="str">
-            <v>0.00219***</v>
+            <v>0.00***</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>(6.92e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C8" t="str">
-            <v>(6.24e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D8" t="str">
-            <v>(3.07e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E8" t="str">
-            <v>(2.96e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="F8" t="str">
-            <v>(2.73e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="G8" t="str">
-            <v>(2.60e-06)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>0.0161***</v>
+            <v>0.02***</v>
           </cell>
           <cell r="C9" t="str">
-            <v>0.00739***</v>
+            <v>0.01***</v>
           </cell>
           <cell r="D9" t="str">
-            <v>-0.00756***</v>
+            <v>-0.01***</v>
           </cell>
           <cell r="E9" t="str">
-            <v>-0.00588***</v>
+            <v>-0.01***</v>
           </cell>
           <cell r="F9" t="str">
-            <v>-0.00893***</v>
+            <v>-0.01***</v>
           </cell>
           <cell r="G9" t="str">
-            <v>-0.00704***</v>
+            <v>-0.01***</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>(2.32e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C10" t="str">
-            <v>(1.68e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D10" t="str">
-            <v>(1.16e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E10" t="str">
-            <v>(1.14e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="F10" t="str">
-            <v>(1.12e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="G10" t="str">
-            <v>(1.08e-05)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.132***</v>
+            <v>0.14***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>0.0556***</v>
+            <v>0.06***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>0.0485***</v>
+            <v>0.04***</v>
           </cell>
           <cell r="E11" t="str">
-            <v>0.0338***</v>
+            <v>0.03***</v>
           </cell>
           <cell r="F11" t="str">
-            <v>0.0581***</v>
+            <v>0.05***</v>
           </cell>
           <cell r="G11" t="str">
-            <v>0.0388***</v>
+            <v>0.04***</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>(0.000516)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.000465)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(0.000168)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(0.000161)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="F12" t="str">
-            <v>(0.000155)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>(0.000149)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="15">
@@ -400,22 +400,22 @@
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>25,709,255</v>
+            <v>256,907,371</v>
           </cell>
           <cell r="C16" t="str">
-            <v>25,709,255</v>
+            <v>256,907,371</v>
           </cell>
           <cell r="D16" t="str">
-            <v>89,123,685</v>
+            <v>889,818,900</v>
           </cell>
           <cell r="E16" t="str">
-            <v>89,123,685</v>
+            <v>889,818,900</v>
           </cell>
           <cell r="F16" t="str">
-            <v>116,867,185</v>
+            <v>1172076421</v>
           </cell>
           <cell r="G16" t="str">
-            <v>116,867,185</v>
+            <v>1172076421</v>
           </cell>
         </row>
         <row r="17">
@@ -423,22 +423,22 @@
             <v>R-squared</v>
           </cell>
           <cell r="B17" t="str">
-            <v>0.327</v>
+            <v>0.23</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.478</v>
+            <v>0.41</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.209</v>
+            <v>0.15</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.302</v>
+            <v>0.25</v>
           </cell>
           <cell r="F17" t="str">
-            <v>0.219</v>
+            <v>0.16</v>
           </cell>
           <cell r="G17" t="str">
-            <v>0.316</v>
+            <v>0.26</v>
           </cell>
         </row>
         <row r="18">
@@ -472,30 +472,30 @@
             <v>0.220</v>
           </cell>
           <cell r="D19" t="str">
-            <v>0.730</v>
+            <v>0.729</v>
           </cell>
           <cell r="F19" t="str">
-            <v>0.719</v>
+            <v>0.721</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>170990</v>
+            <v>1.705e+06</v>
           </cell>
           <cell r="C20" t="str">
-            <v>170990</v>
+            <v>1.705e+06</v>
           </cell>
           <cell r="D20" t="str">
-            <v>339991</v>
+            <v>3.394e+06</v>
           </cell>
           <cell r="E20" t="str">
-            <v>339991</v>
+            <v>3.394e+06</v>
           </cell>
           <cell r="F20" t="str">
-            <v>399718</v>
+            <v>4.007e+06</v>
           </cell>
           <cell r="G20" t="str">
-            <v>399718</v>
+            <v>4.007e+06</v>
           </cell>
         </row>
         <row r="21">
@@ -537,13 +537,13 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="C4" t="str">
-            <v>1.513</v>
+            <v>1.515</v>
           </cell>
           <cell r="E4" t="str">
             <v>1.519</v>
           </cell>
           <cell r="G4" t="str">
-            <v>1.515</v>
+            <v>1.516</v>
           </cell>
         </row>
         <row r="5">
@@ -559,35 +559,35 @@
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>27.464</v>
+            <v>27.581</v>
           </cell>
           <cell r="E6" t="str">
-            <v>29.017</v>
+            <v>28.982</v>
           </cell>
           <cell r="G6" t="str">
-            <v>30.485</v>
+            <v>30.500</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>[0.001]</v>
+            <v>[0.000]</v>
           </cell>
           <cell r="E7" t="str">
-            <v>[0.001]</v>
+            <v>[0.000]</v>
           </cell>
           <cell r="G7" t="str">
-            <v>[0.001]</v>
+            <v>[0.000]</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>3.287</v>
+            <v>3.290</v>
           </cell>
           <cell r="E8" t="str">
-            <v>6.091</v>
+            <v>6.088</v>
           </cell>
           <cell r="G8" t="str">
-            <v>6.727</v>
+            <v>6.715</v>
           </cell>
         </row>
         <row r="9">
@@ -603,13 +603,13 @@
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>0.551</v>
+            <v>0.550</v>
           </cell>
           <cell r="E10" t="str">
             <v>0.773</v>
           </cell>
           <cell r="G10" t="str">
-            <v>0.792</v>
+            <v>0.793</v>
           </cell>
         </row>
         <row r="11">
@@ -1026,15 +1026,15 @@
       </c>
       <c r="B6" s="4">
         <f>ROUND([2]Sheet1!C4,2)</f>
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>[1]Sheet1!B5</f>
-        <v>0.0807***</v>
+        <v>0.08***</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>[1]Sheet1!C5</f>
-        <v>0.0207***</v>
+        <v>0.02***</v>
       </c>
       <c r="F6" s="4">
         <f>ROUND([2]Sheet1!E4,2)</f>
@@ -1042,11 +1042,11 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>[1]Sheet1!D5</f>
-        <v>0.0453***</v>
+        <v>0.04***</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>[1]Sheet1!E5</f>
-        <v>0.0353***</v>
+        <v>0.03***</v>
       </c>
       <c r="J6" s="4">
         <f>ROUND([2]Sheet1!G4,2)</f>
@@ -1054,11 +1054,11 @@
       </c>
       <c r="K6" s="4" t="str">
         <f>[1]Sheet1!F5</f>
-        <v>0.0436***</v>
+        <v>0.04***</v>
       </c>
       <c r="L6" s="4" t="str">
         <f>[1]Sheet1!G5</f>
-        <v>0.0285***</v>
+        <v>0.03***</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>[1]Sheet1!B6</f>
-        <v>(0.000161)</v>
+        <v>(0.00)</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>[1]Sheet1!C6</f>
-        <v>(0.000145)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>[2]Sheet1!E5</f>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>[1]Sheet1!D6</f>
-        <v>(9.51e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>[1]Sheet1!E6</f>
-        <v>(0.000102)</v>
+        <v>(0.00)</v>
       </c>
       <c r="J7" s="4" t="str">
         <f>[2]Sheet1!G5</f>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="K7" s="4" t="str">
         <f>[1]Sheet1!F6</f>
-        <v>(8.34e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="L7" s="4" t="str">
         <f>[1]Sheet1!G6</f>
-        <v>(8.90e-05)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1108,39 +1108,39 @@
       </c>
       <c r="B8" s="4">
         <f>ROUND([2]Sheet1!C6,2)</f>
-        <v>27.46</v>
+        <v>27.58</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>[1]Sheet1!B7</f>
-        <v>0.00660***</v>
+        <v>0.01***</v>
       </c>
       <c r="D8" s="4" t="str">
         <f>[1]Sheet1!C7</f>
-        <v>0.00320***</v>
+        <v>0.00***</v>
       </c>
       <c r="F8" s="4">
         <f>ROUND([2]Sheet1!E6,2)</f>
-        <v>29.02</v>
+        <v>28.98</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>[1]Sheet1!D7</f>
-        <v>0.00253***</v>
+        <v>0.00***</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>[1]Sheet1!E7</f>
-        <v>0.00198***</v>
+        <v>0.00***</v>
       </c>
       <c r="J8" s="4">
         <f>ROUND([2]Sheet1!G6,2)</f>
-        <v>30.49</v>
+        <v>30.5</v>
       </c>
       <c r="K8" s="4" t="str">
         <f>[1]Sheet1!F7</f>
-        <v>0.00282***</v>
+        <v>0.00***</v>
       </c>
       <c r="L8" s="4" t="str">
         <f>[1]Sheet1!G7</f>
-        <v>0.00219***</v>
+        <v>0.00***</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1149,39 +1149,39 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>[2]Sheet1!C7</f>
-        <v>[0.001]</v>
+        <v>[0.000]</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>[1]Sheet1!B8</f>
-        <v>(6.92e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>[1]Sheet1!C8</f>
-        <v>(6.24e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>[2]Sheet1!E7</f>
-        <v>[0.001]</v>
+        <v>[0.000]</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>[1]Sheet1!D8</f>
-        <v>(3.07e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="H9" s="4" t="str">
         <f>[1]Sheet1!E8</f>
-        <v>(2.96e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="J9" s="4" t="str">
         <f>[2]Sheet1!G7</f>
-        <v>[0.001]</v>
+        <v>[0.000]</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>[1]Sheet1!F8</f>
-        <v>(2.73e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="L9" s="4" t="str">
         <f>[1]Sheet1!G8</f>
-        <v>(2.60e-06)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1194,11 +1194,11 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>[1]Sheet1!B9</f>
-        <v>0.0161***</v>
+        <v>0.02***</v>
       </c>
       <c r="D10" s="4" t="str">
         <f>[1]Sheet1!C9</f>
-        <v>0.00739***</v>
+        <v>0.01***</v>
       </c>
       <c r="F10" s="4">
         <f>ROUND([2]Sheet1!E8,2)</f>
@@ -1206,23 +1206,23 @@
       </c>
       <c r="G10" s="4" t="str">
         <f>[1]Sheet1!D9</f>
-        <v>-0.00756***</v>
+        <v>-0.01***</v>
       </c>
       <c r="H10" s="4" t="str">
         <f>[1]Sheet1!E9</f>
-        <v>-0.00588***</v>
+        <v>-0.01***</v>
       </c>
       <c r="J10" s="4">
         <f>ROUND([2]Sheet1!G8,2)</f>
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="K10" s="4" t="str">
         <f>[1]Sheet1!F9</f>
-        <v>-0.00893***</v>
+        <v>-0.01***</v>
       </c>
       <c r="L10" s="4" t="str">
         <f>[1]Sheet1!G9</f>
-        <v>-0.00704***</v>
+        <v>-0.01***</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>[1]Sheet1!B10</f>
-        <v>(2.32e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>[1]Sheet1!C10</f>
-        <v>(1.68e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>[2]Sheet1!E9</f>
@@ -1247,11 +1247,11 @@
       </c>
       <c r="G11" s="4" t="str">
         <f>[1]Sheet1!D10</f>
-        <v>(1.16e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="H11" s="4" t="str">
         <f>[1]Sheet1!E10</f>
-        <v>(1.14e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="J11" s="4" t="str">
         <f>[2]Sheet1!G9</f>
@@ -1259,11 +1259,11 @@
       </c>
       <c r="K11" s="4" t="str">
         <f>[1]Sheet1!F10</f>
-        <v>(1.12e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="L11" s="4" t="str">
         <f>[1]Sheet1!G10</f>
-        <v>(1.08e-05)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>[1]Sheet1!B11</f>
-        <v>0.132***</v>
+        <v>0.14***</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>[1]Sheet1!C11</f>
-        <v>0.0556***</v>
+        <v>0.06***</v>
       </c>
       <c r="F12" s="4">
         <f>ROUND([2]Sheet1!E10,2)</f>
@@ -1288,11 +1288,11 @@
       </c>
       <c r="G12" s="4" t="str">
         <f>[1]Sheet1!D11</f>
-        <v>0.0485***</v>
+        <v>0.04***</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>[1]Sheet1!E11</f>
-        <v>0.0338***</v>
+        <v>0.03***</v>
       </c>
       <c r="J12" s="4">
         <f>ROUND([2]Sheet1!G10,2)</f>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="K12" s="4" t="str">
         <f>[1]Sheet1!F11</f>
-        <v>0.0581***</v>
+        <v>0.05***</v>
       </c>
       <c r="L12" s="4" t="str">
         <f>[1]Sheet1!G11</f>
-        <v>0.0388***</v>
+        <v>0.04***</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1317,11 +1317,11 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>[1]Sheet1!B12</f>
-        <v>(0.000516)</v>
+        <v>(0.00)</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>[1]Sheet1!C12</f>
-        <v>(0.000465)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>[2]Sheet1!E11</f>
@@ -1329,11 +1329,11 @@
       </c>
       <c r="G13" s="4" t="str">
         <f>[1]Sheet1!D12</f>
-        <v>(0.000168)</v>
+        <v>(0.00)</v>
       </c>
       <c r="H13" s="4" t="str">
         <f>[1]Sheet1!E12</f>
-        <v>(0.000161)</v>
+        <v>(0.00)</v>
       </c>
       <c r="J13" s="4" t="str">
         <f>[2]Sheet1!G11</f>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="K13" s="4" t="str">
         <f>[1]Sheet1!F12</f>
-        <v>(0.000155)</v>
+        <v>(0.00)</v>
       </c>
       <c r="L13" s="4" t="str">
         <f>[1]Sheet1!G12</f>
-        <v>(0.000149)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1381,31 +1381,31 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="str">
         <f>[1]Sheet1!B20</f>
-        <v>170990</v>
+        <v>1.705e+06</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]Sheet1!C20</f>
-        <v>170990</v>
+        <v>1.705e+06</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="str">
         <f>[1]Sheet1!D20</f>
-        <v>339991</v>
+        <v>3.394e+06</v>
       </c>
       <c r="H15" s="6" t="str">
         <f>[1]Sheet1!E20</f>
-        <v>339991</v>
+        <v>3.394e+06</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="str">
         <f>[1]Sheet1!F20</f>
-        <v>399718</v>
+        <v>4.007e+06</v>
       </c>
       <c r="L15" s="6" t="str">
         <f>[1]Sheet1!G20</f>
-        <v>399718</v>
+        <v>4.007e+06</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1414,27 +1414,27 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>[1]Sheet1!B16</f>
-        <v>25,709,255</v>
+        <v>256,907,371</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>[1]Sheet1!C16</f>
-        <v>25,709,255</v>
+        <v>256,907,371</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>[1]Sheet1!D16</f>
-        <v>89,123,685</v>
+        <v>889,818,900</v>
       </c>
       <c r="H16" s="4" t="str">
         <f>[1]Sheet1!E16</f>
-        <v>89,123,685</v>
+        <v>889,818,900</v>
       </c>
       <c r="K16" s="4" t="str">
         <f>[1]Sheet1!F16</f>
-        <v>116,867,185</v>
+        <v>1172076421</v>
       </c>
       <c r="L16" s="4" t="str">
         <f>[1]Sheet1!G16</f>
-        <v>116,867,185</v>
+        <v>1172076421</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1444,27 +1444,27 @@
       </c>
       <c r="C17" s="4" t="str">
         <f>[1]Sheet1!B17</f>
-        <v>0.327</v>
+        <v>0.23</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>[1]Sheet1!C17</f>
-        <v>0.478</v>
+        <v>0.41</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>[1]Sheet1!D17</f>
-        <v>0.209</v>
+        <v>0.15</v>
       </c>
       <c r="H17" s="4" t="str">
         <f>[1]Sheet1!E17</f>
-        <v>0.302</v>
+        <v>0.25</v>
       </c>
       <c r="K17" s="4" t="str">
         <f>[1]Sheet1!F17</f>
-        <v>0.219</v>
+        <v>0.16</v>
       </c>
       <c r="L17" s="4" t="str">
         <f>[1]Sheet1!G17</f>
-        <v>0.316</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1480,12 +1480,12 @@
       <c r="D18" s="10"/>
       <c r="G18" s="10" t="str">
         <f>[1]Sheet1!D19</f>
-        <v>0.730</v>
+        <v>0.729</v>
       </c>
       <c r="H18" s="10"/>
       <c r="K18" s="10" t="str">
         <f>[1]Sheet1!F19</f>
-        <v>0.719</v>
+        <v>0.721</v>
       </c>
       <c r="L18" s="10"/>
     </row>

--- a/Tables/determinants_informal.xlsx
+++ b/Tables/determinants_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF93EA-330C-4D4C-A615-350D2B093BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5BFAD-1D4D-4022-9F29-8A6EBF3BC318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19170" yWindow="-4935" windowWidth="14400" windowHeight="8175" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
   </bookViews>
   <sheets>
     <sheet name="determinants_informal" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Variable mean</t>
   </si>
@@ -65,16 +65,13 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>[2000,2004]</t>
-  </si>
-  <si>
-    <t>[2005,2015]</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
     <t xml:space="preserve">No IMSS </t>
+  </si>
+  <si>
+    <t>[2010,2015]</t>
   </si>
 </sst>
 </file>
@@ -217,19 +214,13 @@
           <cell r="E2" t="str">
             <v>(4)</v>
           </cell>
-          <cell r="F2" t="str">
-            <v>(5)</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>(6)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.08***</v>
+            <v>0.04***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.02***</v>
+            <v>0.03***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.04***</v>
@@ -237,12 +228,6 @@
           <cell r="E5" t="str">
             <v>0.03***</v>
           </cell>
-          <cell r="F5" t="str">
-            <v>0.04***</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>0.03***</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
@@ -257,16 +242,10 @@
           <cell r="E6" t="str">
             <v>(0.00)</v>
           </cell>
-          <cell r="F6" t="str">
-            <v>(0.00)</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>(0.00)</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>0.01***</v>
+            <v>0.00***</v>
           </cell>
           <cell r="C7" t="str">
             <v>0.00***</v>
@@ -277,12 +256,6 @@
           <cell r="E7" t="str">
             <v>0.00***</v>
           </cell>
-          <cell r="F7" t="str">
-            <v>0.00***</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>0.00***</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
@@ -297,19 +270,13 @@
           <cell r="E8" t="str">
             <v>(0.00)</v>
           </cell>
-          <cell r="F8" t="str">
-            <v>(0.00)</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>(0.00)</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>0.02***</v>
+            <v>-0.01***</v>
           </cell>
           <cell r="C9" t="str">
-            <v>0.01***</v>
+            <v>-0.01***</v>
           </cell>
           <cell r="D9" t="str">
             <v>-0.01***</v>
@@ -317,12 +284,6 @@
           <cell r="E9" t="str">
             <v>-0.01***</v>
           </cell>
-          <cell r="F9" t="str">
-            <v>-0.01***</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>-0.01***</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
@@ -337,30 +298,18 @@
           <cell r="E10" t="str">
             <v>(0.00)</v>
           </cell>
-          <cell r="F10" t="str">
-            <v>(0.00)</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>(0.00)</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.14***</v>
+            <v>0.04***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>0.06***</v>
+            <v>0.03***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>0.04***</v>
+            <v>0.05***</v>
           </cell>
           <cell r="E11" t="str">
-            <v>0.03***</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>0.05***</v>
-          </cell>
-          <cell r="G11" t="str">
             <v>0.04***</v>
           </cell>
         </row>
@@ -375,12 +324,6 @@
             <v>(0.00)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(0.00)</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>(0.00)</v>
-          </cell>
-          <cell r="G12" t="str">
             <v>(0.00)</v>
           </cell>
         </row>
@@ -391,30 +334,18 @@
           <cell r="C15" t="str">
             <v/>
           </cell>
-          <cell r="D15" t="str">
-            <v/>
-          </cell>
-          <cell r="E15" t="str">
-            <v/>
-          </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>256,907,371</v>
+            <v>889,818,900</v>
           </cell>
           <cell r="C16" t="str">
-            <v>256,907,371</v>
+            <v>889,818,900</v>
           </cell>
           <cell r="D16" t="str">
-            <v>889,818,900</v>
+            <v>1172076421</v>
           </cell>
           <cell r="E16" t="str">
-            <v>889,818,900</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>1172076421</v>
-          </cell>
-          <cell r="G16" t="str">
             <v>1172076421</v>
           </cell>
         </row>
@@ -423,21 +354,15 @@
             <v>R-squared</v>
           </cell>
           <cell r="B17" t="str">
-            <v>0.23</v>
+            <v>0.15</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.41</v>
+            <v>0.25</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.15</v>
+            <v>0.16</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.25</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>0.16</v>
-          </cell>
-          <cell r="G17" t="str">
             <v>0.26</v>
           </cell>
         </row>
@@ -457,44 +382,29 @@
           <cell r="E18" t="str">
             <v>\checkmark</v>
           </cell>
-          <cell r="F18" t="str">
-            <v>\checkmark</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>\checkmark</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
             <v>Dep var mean</v>
           </cell>
           <cell r="B19" t="str">
-            <v>0.220</v>
+            <v>0.729</v>
           </cell>
           <cell r="D19" t="str">
-            <v>0.729</v>
-          </cell>
-          <cell r="F19" t="str">
             <v>0.721</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>1.705e+06</v>
+            <v>3.394e+06</v>
           </cell>
           <cell r="C20" t="str">
-            <v>1.705e+06</v>
+            <v>3.394e+06</v>
           </cell>
           <cell r="D20" t="str">
-            <v>3.394e+06</v>
+            <v>4.007e+06</v>
           </cell>
           <cell r="E20" t="str">
-            <v>3.394e+06</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>4.007e+06</v>
-          </cell>
-          <cell r="G20" t="str">
             <v>4.007e+06</v>
           </cell>
         </row>
@@ -512,12 +422,6 @@
             <v/>
           </cell>
           <cell r="E21" t="str">
-            <v>\checkmark</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v/>
-          </cell>
-          <cell r="G21" t="str">
             <v>\checkmark</v>
           </cell>
         </row>
@@ -537,12 +441,9 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="C4" t="str">
-            <v>1.515</v>
+            <v>1.519</v>
           </cell>
           <cell r="E4" t="str">
-            <v>1.519</v>
-          </cell>
-          <cell r="G4" t="str">
             <v>1.516</v>
           </cell>
         </row>
@@ -553,18 +454,12 @@
           <cell r="E5" t="str">
             <v>[0.000]</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>[0.000]</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>27.581</v>
+            <v>28.982</v>
           </cell>
           <cell r="E6" t="str">
-            <v>28.982</v>
-          </cell>
-          <cell r="G6" t="str">
             <v>30.500</v>
           </cell>
         </row>
@@ -575,18 +470,12 @@
           <cell r="E7" t="str">
             <v>[0.000]</v>
           </cell>
-          <cell r="G7" t="str">
-            <v>[0.000]</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>3.290</v>
+            <v>6.088</v>
           </cell>
           <cell r="E8" t="str">
-            <v>6.088</v>
-          </cell>
-          <cell r="G8" t="str">
             <v>6.715</v>
           </cell>
         </row>
@@ -597,18 +486,12 @@
           <cell r="E9" t="str">
             <v>[0.000]</v>
           </cell>
-          <cell r="G9" t="str">
-            <v>[0.000]</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>0.550</v>
+            <v>0.773</v>
           </cell>
           <cell r="E10" t="str">
-            <v>0.773</v>
-          </cell>
-          <cell r="G10" t="str">
             <v>0.793</v>
           </cell>
         </row>
@@ -617,9 +500,6 @@
             <v>[0.000]</v>
           </cell>
           <cell r="E11" t="str">
-            <v>[0.000]</v>
-          </cell>
-          <cell r="G11" t="str">
             <v>[0.000]</v>
           </cell>
         </row>
@@ -934,22 +814,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E69F452-3546-45DA-82AD-2845FB11ACD7}">
-  <dimension ref="A3:L21"/>
+  <dimension ref="A3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L20"/>
+      <selection activeCell="A3" sqref="A3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="8.7265625" style="4"/>
+    <col min="2" max="8" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -957,29 +837,20 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="str">
         <f>[1]Sheet1!A2</f>
         <v/>
@@ -1007,20 +878,8 @@
         <f>[1]Sheet1!E2</f>
         <v>(4)</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f>[1]Sheet1!F2</f>
-        <v>(5)</v>
-      </c>
-      <c r="L5" s="5" t="str">
-        <f>[1]Sheet1!G2</f>
-        <v>(6)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1030,11 +889,11 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>[1]Sheet1!B5</f>
-        <v>0.08***</v>
+        <v>0.04***</v>
       </c>
       <c r="D6" s="4" t="str">
         <f>[1]Sheet1!C5</f>
-        <v>0.02***</v>
+        <v>0.03***</v>
       </c>
       <c r="F6" s="4">
         <f>ROUND([2]Sheet1!E4,2)</f>
@@ -1048,20 +907,8 @@
         <f>[1]Sheet1!E5</f>
         <v>0.03***</v>
       </c>
-      <c r="J6" s="4">
-        <f>ROUND([2]Sheet1!G4,2)</f>
-        <v>1.52</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>[1]Sheet1!F5</f>
-        <v>0.04***</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f>[1]Sheet1!G5</f>
-        <v>0.03***</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1089,30 +936,18 @@
         <f>[1]Sheet1!E6</f>
         <v>(0.00)</v>
       </c>
-      <c r="J7" s="4" t="str">
-        <f>[2]Sheet1!G5</f>
-        <v>[0.000]</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f>[1]Sheet1!F6</f>
-        <v>(0.00)</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f>[1]Sheet1!G6</f>
-        <v>(0.00)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4">
         <f>ROUND([2]Sheet1!C6,2)</f>
-        <v>27.58</v>
+        <v>28.98</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>[1]Sheet1!B7</f>
-        <v>0.01***</v>
+        <v>0.00***</v>
       </c>
       <c r="D8" s="4" t="str">
         <f>[1]Sheet1!C7</f>
@@ -1120,7 +955,7 @@
       </c>
       <c r="F8" s="4">
         <f>ROUND([2]Sheet1!E6,2)</f>
-        <v>28.98</v>
+        <v>30.5</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>[1]Sheet1!D7</f>
@@ -1130,20 +965,8 @@
         <f>[1]Sheet1!E7</f>
         <v>0.00***</v>
       </c>
-      <c r="J8" s="4">
-        <f>ROUND([2]Sheet1!G6,2)</f>
-        <v>30.5</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f>[1]Sheet1!F7</f>
-        <v>0.00***</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f>[1]Sheet1!G7</f>
-        <v>0.00***</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1171,38 +994,26 @@
         <f>[1]Sheet1!E8</f>
         <v>(0.00)</v>
       </c>
-      <c r="J9" s="4" t="str">
-        <f>[2]Sheet1!G7</f>
-        <v>[0.000]</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>[1]Sheet1!F8</f>
-        <v>(0.00)</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f>[1]Sheet1!G8</f>
-        <v>(0.00)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4">
         <f>ROUND([2]Sheet1!C8,2)</f>
-        <v>3.29</v>
+        <v>6.09</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>[1]Sheet1!B9</f>
-        <v>0.02***</v>
+        <v>-0.01***</v>
       </c>
       <c r="D10" s="4" t="str">
         <f>[1]Sheet1!C9</f>
-        <v>0.01***</v>
+        <v>-0.01***</v>
       </c>
       <c r="F10" s="4">
         <f>ROUND([2]Sheet1!E8,2)</f>
-        <v>6.09</v>
+        <v>6.72</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>[1]Sheet1!D9</f>
@@ -1212,20 +1023,8 @@
         <f>[1]Sheet1!E9</f>
         <v>-0.01***</v>
       </c>
-      <c r="J10" s="4">
-        <f>ROUND([2]Sheet1!G8,2)</f>
-        <v>6.72</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>[1]Sheet1!F9</f>
-        <v>-0.01***</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f>[1]Sheet1!G9</f>
-        <v>-0.01***</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1253,61 +1052,37 @@
         <f>[1]Sheet1!E10</f>
         <v>(0.00)</v>
       </c>
-      <c r="J11" s="4" t="str">
-        <f>[2]Sheet1!G9</f>
-        <v>[0.000]</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f>[1]Sheet1!F10</f>
-        <v>(0.00)</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f>[1]Sheet1!G10</f>
-        <v>(0.00)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="4">
         <f>ROUND([2]Sheet1!C10,2)</f>
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>[1]Sheet1!B11</f>
-        <v>0.14***</v>
+        <v>0.04***</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>[1]Sheet1!C11</f>
-        <v>0.06***</v>
+        <v>0.03***</v>
       </c>
       <c r="F12" s="4">
         <f>ROUND([2]Sheet1!E10,2)</f>
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>[1]Sheet1!D11</f>
-        <v>0.04***</v>
+        <v>0.05***</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>[1]Sheet1!E11</f>
-        <v>0.03***</v>
-      </c>
-      <c r="J12" s="4">
-        <f>ROUND([2]Sheet1!G10,2)</f>
-        <v>0.79</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f>[1]Sheet1!F11</f>
-        <v>0.05***</v>
-      </c>
-      <c r="L12" s="4" t="str">
-        <f>[1]Sheet1!G11</f>
         <v>0.04***</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1335,20 +1110,8 @@
         <f>[1]Sheet1!E12</f>
         <v>(0.00)</v>
       </c>
-      <c r="J13" s="4" t="str">
-        <f>[2]Sheet1!G11</f>
-        <v>[0.000]</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f>[1]Sheet1!F12</f>
-        <v>(0.00)</v>
-      </c>
-      <c r="L13" s="4" t="str">
-        <f>[1]Sheet1!G12</f>
-        <v>(0.00)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="str">
         <f>[2]Sheet1!C14</f>
         <v/>
@@ -1365,109 +1128,75 @@
         <f>[2]Sheet1!E14</f>
         <v/>
       </c>
-      <c r="K14" s="4" t="str">
-        <f>[1]Sheet1!D15</f>
-        <v/>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f>[1]Sheet1!E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="str">
         <f>[1]Sheet1!B20</f>
-        <v>1.705e+06</v>
+        <v>3.394e+06</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>[1]Sheet1!C20</f>
-        <v>1.705e+06</v>
+        <v>3.394e+06</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="str">
         <f>[1]Sheet1!D20</f>
-        <v>3.394e+06</v>
+        <v>4.007e+06</v>
       </c>
       <c r="H15" s="6" t="str">
         <f>[1]Sheet1!E20</f>
-        <v>3.394e+06</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="str">
-        <f>[1]Sheet1!F20</f>
         <v>4.007e+06</v>
       </c>
-      <c r="L15" s="6" t="str">
-        <f>[1]Sheet1!G20</f>
-        <v>4.007e+06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>[1]Sheet1!B16</f>
-        <v>256,907,371</v>
+        <v>889,818,900</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>[1]Sheet1!C16</f>
-        <v>256,907,371</v>
+        <v>889,818,900</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>[1]Sheet1!D16</f>
-        <v>889,818,900</v>
+        <v>1172076421</v>
       </c>
       <c r="H16" s="4" t="str">
         <f>[1]Sheet1!E16</f>
-        <v>889,818,900</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>[1]Sheet1!F16</f>
         <v>1172076421</v>
       </c>
-      <c r="L16" s="4" t="str">
-        <f>[1]Sheet1!G16</f>
-        <v>1172076421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>[1]Sheet1!A17</f>
         <v>R-squared</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>[1]Sheet1!B17</f>
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>[1]Sheet1!C17</f>
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>[1]Sheet1!D17</f>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H17" s="4" t="str">
         <f>[1]Sheet1!E17</f>
-        <v>0.25</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f>[1]Sheet1!F17</f>
-        <v>0.16</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f>[1]Sheet1!G17</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]Sheet1!A19</f>
         <v>Dep var mean</v>
@@ -1475,21 +1204,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="10" t="str">
         <f>[1]Sheet1!B19</f>
-        <v>0.220</v>
+        <v>0.729</v>
       </c>
       <c r="D18" s="10"/>
       <c r="G18" s="10" t="str">
         <f>[1]Sheet1!D19</f>
-        <v>0.729</v>
+        <v>0.721</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="K18" s="10" t="str">
-        <f>[1]Sheet1!F19</f>
-        <v>0.721</v>
-      </c>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>[1]Sheet1!A18</f>
         <v>Municipality $\times$ Date FE</v>
@@ -1511,16 +1235,8 @@
         <f>[1]Sheet1!E18</f>
         <v>\checkmark</v>
       </c>
-      <c r="K19" s="4" t="str">
-        <f>[1]Sheet1!F18</f>
-        <v>\checkmark</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f>[1]Sheet1!G18</f>
-        <v>\checkmark</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="str">
         <f>[1]Sheet1!A21</f>
         <v>Occupation FE</v>
@@ -1544,25 +1260,13 @@
         <f>[1]Sheet1!E21</f>
         <v>\checkmark</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="str">
-        <f>[1]Sheet1!F21</f>
-        <v/>
-      </c>
-      <c r="L20" s="5" t="str">
-        <f>[1]Sheet1!G21</f>
-        <v>\checkmark</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="G18:H18"/>
   </mergeCells>

--- a/Tables/determinants_informal.xlsx
+++ b/Tables/determinants_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5BFAD-1D4D-4022-9F29-8A6EBF3BC318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E21739-69D5-4189-8173-E7DCA419A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
+    <workbookView xWindow="28680" yWindow="-6990" windowWidth="29040" windowHeight="15720" xr2:uid="{5F55F183-95DB-4111-816F-CBDE0F88E005}"/>
   </bookViews>
   <sheets>
     <sheet name="determinants_informal" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Variable mean</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>[2010,2015]</t>
+  </si>
+  <si>
+    <t>Married</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -162,6 +165,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,7 +307,7 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.04***</v>
+            <v>0.05***</v>
           </cell>
           <cell r="C11" t="str">
             <v>0.03***</v>
@@ -327,101 +333,129 @@
             <v>(0.00)</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="B15" t="str">
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>-0.02***</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>-0.02***</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>-0.03***</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>-0.02***</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>(0.00)</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>(0.00)</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>(0.00)</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>(0.00)</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
             <v/>
           </cell>
-          <cell r="C15" t="str">
+          <cell r="C17" t="str">
             <v/>
           </cell>
         </row>
-        <row r="16">
-          <cell r="B16" t="str">
+        <row r="18">
+          <cell r="B18" t="str">
             <v>889,818,900</v>
           </cell>
-          <cell r="C16" t="str">
+          <cell r="C18" t="str">
             <v>889,818,900</v>
           </cell>
-          <cell r="D16" t="str">
+          <cell r="D18" t="str">
             <v>1172076421</v>
           </cell>
-          <cell r="E16" t="str">
+          <cell r="E18" t="str">
             <v>1172076421</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>R-squared</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>0.15</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>0.25</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>0.16</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>0.26</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Municipality $\times$ Date FE</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>\checkmark</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>\checkmark</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>\checkmark</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>\checkmark</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Dep var mean</v>
+            <v>R-squared</v>
           </cell>
           <cell r="B19" t="str">
-            <v>0.729</v>
+            <v>0.15</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>0.25</v>
           </cell>
           <cell r="D19" t="str">
-            <v>0.721</v>
+            <v>0.16</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>0.26</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="A20" t="str">
+            <v>Municipality $\times$ Date FE</v>
+          </cell>
           <cell r="B20" t="str">
-            <v>3.394e+06</v>
+            <v>\checkmark</v>
           </cell>
           <cell r="C20" t="str">
-            <v>3.394e+06</v>
+            <v>\checkmark</v>
           </cell>
           <cell r="D20" t="str">
-            <v>4.007e+06</v>
+            <v>\checkmark</v>
           </cell>
           <cell r="E20" t="str">
-            <v>4.007e+06</v>
+            <v>\checkmark</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
+            <v>Dep var mean</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>0.729</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>0.721</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>3.394e+06</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>3.394e+06</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>4.007e+06</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>4.007e+06</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
             <v>Occupation FE</v>
           </cell>
-          <cell r="B21" t="str">
+          <cell r="B23" t="str">
             <v/>
           </cell>
-          <cell r="C21" t="str">
+          <cell r="C23" t="str">
             <v>\checkmark</v>
           </cell>
-          <cell r="D21" t="str">
+          <cell r="D23" t="str">
             <v/>
           </cell>
-          <cell r="E21" t="str">
+          <cell r="E23" t="str">
             <v>\checkmark</v>
           </cell>
         </row>
@@ -500,6 +534,22 @@
             <v>[0.000]</v>
           </cell>
           <cell r="E11" t="str">
+            <v>[0.000]</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>0.536</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>0.538</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>[0.000]</v>
+          </cell>
+          <cell r="E13" t="str">
             <v>[0.000]</v>
           </cell>
         </row>
@@ -814,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E69F452-3546-45DA-82AD-2845FB11ACD7}">
-  <dimension ref="A3:H21"/>
+  <dimension ref="A3:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H20"/>
+      <selection activeCell="H22" sqref="A3:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,27 +878,27 @@
   <sheetData>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="str">
@@ -1063,7 +1113,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>[1]Sheet1!B11</f>
-        <v>0.04***</v>
+        <v>0.05***</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>[1]Sheet1!C11</f>
@@ -1090,11 +1140,11 @@
         <f>[2]Sheet1!C11</f>
         <v>[0.000]</v>
       </c>
-      <c r="C13" s="4" t="str">
+      <c r="C13" s="8" t="str">
         <f>[1]Sheet1!B12</f>
         <v>(0.00)</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="8" t="str">
         <f>[1]Sheet1!C12</f>
         <v>(0.00)</v>
       </c>
@@ -1112,163 +1162,220 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="str">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8">
+        <f>ROUND([2]Sheet1!C12,2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f>[1]Sheet1!B13</f>
+        <v>-0.02***</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>[1]Sheet1!C13</f>
+        <v>-0.02***</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <f>ROUND([2]Sheet1!E12,2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f>[1]Sheet1!D13</f>
+        <v>-0.03***</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>[1]Sheet1!E13</f>
+        <v>-0.02***</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="str">
+        <f>[2]Sheet1!C13</f>
+        <v>[0.000]</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f>[1]Sheet1!B14</f>
+        <v>(0.00)</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>[1]Sheet1!C14</f>
+        <v>(0.00)</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="str">
+        <f>[2]Sheet1!E13</f>
+        <v>[0.000]</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f>[1]Sheet1!D14</f>
+        <v>(0.00)</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f>[1]Sheet1!E14</f>
+        <v>(0.00)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="str">
         <f>[2]Sheet1!C14</f>
         <v/>
       </c>
-      <c r="C14" s="4" t="str">
-        <f>[1]Sheet1!B15</f>
+      <c r="C16" s="4" t="str">
+        <f>[1]Sheet1!B17</f>
         <v/>
       </c>
-      <c r="D14" s="4" t="str">
-        <f>[1]Sheet1!C15</f>
+      <c r="D16" s="4" t="str">
+        <f>[1]Sheet1!C17</f>
         <v/>
       </c>
-      <c r="H14" s="4" t="str">
+      <c r="H16" s="4" t="str">
         <f>[2]Sheet1!E14</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="str">
-        <f>[1]Sheet1!B20</f>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="str">
+        <f>[1]Sheet1!B22</f>
         <v>3.394e+06</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f>[1]Sheet1!C20</f>
+      <c r="D17" s="6" t="str">
+        <f>[1]Sheet1!C22</f>
         <v>3.394e+06</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="str">
-        <f>[1]Sheet1!D20</f>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="str">
+        <f>[1]Sheet1!D22</f>
         <v>4.007e+06</v>
       </c>
-      <c r="H15" s="6" t="str">
-        <f>[1]Sheet1!E20</f>
+      <c r="H17" s="6" t="str">
+        <f>[1]Sheet1!E22</f>
         <v>4.007e+06</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="str">
-        <f>[1]Sheet1!B16</f>
+      <c r="C18" s="4" t="str">
+        <f>[1]Sheet1!B18</f>
         <v>889,818,900</v>
       </c>
-      <c r="D16" s="4" t="str">
-        <f>[1]Sheet1!C16</f>
+      <c r="D18" s="4" t="str">
+        <f>[1]Sheet1!C18</f>
         <v>889,818,900</v>
       </c>
-      <c r="G16" s="4" t="str">
-        <f>[1]Sheet1!D16</f>
+      <c r="G18" s="4" t="str">
+        <f>[1]Sheet1!D18</f>
         <v>1172076421</v>
       </c>
-      <c r="H16" s="4" t="str">
-        <f>[1]Sheet1!E16</f>
+      <c r="H18" s="4" t="str">
+        <f>[1]Sheet1!E18</f>
         <v>1172076421</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
-        <f>[1]Sheet1!A17</f>
-        <v>R-squared</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <f>[1]Sheet1!B17</f>
-        <v>0.15</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f>[1]Sheet1!C17</f>
-        <v>0.25</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f>[1]Sheet1!D17</f>
-        <v>0.16</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>[1]Sheet1!E17</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f>[1]Sheet1!A19</f>
-        <v>Dep var mean</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10" t="str">
-        <f>[1]Sheet1!B19</f>
-        <v>0.729</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="G18" s="10" t="str">
-        <f>[1]Sheet1!D19</f>
-        <v>0.721</v>
-      </c>
-      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
-        <f>[1]Sheet1!A18</f>
+        <f>[1]Sheet1!A19</f>
+        <v>R-squared</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>[1]Sheet1!B19</f>
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f>[1]Sheet1!C19</f>
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>[1]Sheet1!D19</f>
+        <v>0.16</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f>[1]Sheet1!E19</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>[1]Sheet1!A21</f>
+        <v>Dep var mean</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="11" t="str">
+        <f>[1]Sheet1!B21</f>
+        <v>0.729</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="G20" s="11" t="str">
+        <f>[1]Sheet1!D21</f>
+        <v>0.721</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>[1]Sheet1!A20</f>
         <v>Municipality $\times$ Date FE</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4" t="str">
-        <f>[1]Sheet1!B18</f>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="str">
+        <f>[1]Sheet1!B20</f>
         <v>\checkmark</v>
       </c>
-      <c r="D19" s="4" t="str">
-        <f>[1]Sheet1!C18</f>
+      <c r="D21" s="4" t="str">
+        <f>[1]Sheet1!C20</f>
         <v>\checkmark</v>
       </c>
-      <c r="G19" s="4" t="str">
-        <f>[1]Sheet1!D18</f>
+      <c r="G21" s="4" t="str">
+        <f>[1]Sheet1!D20</f>
         <v>\checkmark</v>
       </c>
-      <c r="H19" s="4" t="str">
-        <f>[1]Sheet1!E18</f>
+      <c r="H21" s="4" t="str">
+        <f>[1]Sheet1!E20</f>
         <v>\checkmark</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="str">
-        <f>[1]Sheet1!A21</f>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="str">
+        <f>[1]Sheet1!A23</f>
         <v>Occupation FE</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="str">
-        <f>[1]Sheet1!B21</f>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="str">
+        <f>[1]Sheet1!B23</f>
         <v/>
       </c>
-      <c r="D20" s="5" t="str">
-        <f>[1]Sheet1!C21</f>
+      <c r="D22" s="5" t="str">
+        <f>[1]Sheet1!C23</f>
         <v>\checkmark</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="str">
-        <f>[1]Sheet1!D21</f>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f>[1]Sheet1!D23</f>
         <v/>
       </c>
-      <c r="H20" s="5" t="str">
-        <f>[1]Sheet1!E21</f>
+      <c r="H22" s="5" t="str">
+        <f>[1]Sheet1!E23</f>
         <v>\checkmark</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
